--- a/db_erd.xlsx
+++ b/db_erd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\business_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{113ACD4F-9D21-4609-9C75-38DB597C792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11863B3F-F00E-4032-AE6A-8F08DAC44A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{8C2807C4-563D-45B3-80AB-A26016DB4F75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,30 @@
   </si>
   <si>
     <t>답변작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifed_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backref=notice_set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,6 +613,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,30 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,18 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="36">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -861,23 +885,23 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -895,6 +919,120 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -999,25 +1137,37 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1034,42 +1184,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}" name="표2" displayName="표2" ref="A2:E10" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}" name="표2" displayName="표2" ref="A2:E10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A2:E10" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2165067-7723-406E-9663-CFFAA49A24AD}" name="field" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{AAF79685-9FEB-4476-B972-2373B8F66EDC}" name="type" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{ECBAEB79-CEF2-4CF2-8A98-B8E369126E22}" name="content" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{10A09EFD-7341-4EB9-B890-9BEC48CA4F15}" name="null" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{8AF7C31B-B6F2-44D6-A2BB-30AE765C1B25}" name="constraint" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{B2165067-7723-406E-9663-CFFAA49A24AD}" name="field" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{AAF79685-9FEB-4476-B972-2373B8F66EDC}" name="type" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{ECBAEB79-CEF2-4CF2-8A98-B8E369126E22}" name="content" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{10A09EFD-7341-4EB9-B890-9BEC48CA4F15}" name="null" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{8AF7C31B-B6F2-44D6-A2BB-30AE765C1B25}" name="constraint" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}" name="표2_4" displayName="표2_4" ref="A16:E24" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}" name="표2_4" displayName="표2_4" ref="A16:E24" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A16:E24" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3B9FD2ED-6D30-4F5E-800E-25A58755577B}" name="field" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{893E0C3B-7CD1-465C-A7B7-4393BB91FD43}" name="type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AAFC0701-11C8-47DD-8099-24C46ED88030}" name="content" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{264BFC99-143B-4D09-A242-34521BA4CFD6}" name="null" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{22DA176B-7ECB-4A67-8CA0-49A5C3048774}" name="constraint" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{3B9FD2ED-6D30-4F5E-800E-25A58755577B}" name="field" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{893E0C3B-7CD1-465C-A7B7-4393BB91FD43}" name="type" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{AAFC0701-11C8-47DD-8099-24C46ED88030}" name="content" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{264BFC99-143B-4D09-A242-34521BA4CFD6}" name="null" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{22DA176B-7ECB-4A67-8CA0-49A5C3048774}" name="constraint" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}" name="표2_45" displayName="표2_45" ref="A30:E38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}" name="표2_45" displayName="표2_45" ref="A30:E38" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A30:E38" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A154B91D-EA1E-42ED-B4E7-35C270E495A4}" name="field" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{75E6E491-53A5-4E74-AA1C-F689CCAB3D59}" name="type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B0B4AABE-E304-4CEA-8588-ED8AE2929D9C}" name="content" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{98FAB849-6FD0-4301-93EA-9F8F0B76C24E}" name="null" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{25F963E6-DF95-4DA1-8BFF-22B0E4A0ABB1}" name="constraint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A154B91D-EA1E-42ED-B4E7-35C270E495A4}" name="field" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{75E6E491-53A5-4E74-AA1C-F689CCAB3D59}" name="type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B0B4AABE-E304-4CEA-8588-ED8AE2929D9C}" name="content" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{98FAB849-6FD0-4301-93EA-9F8F0B76C24E}" name="null" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{25F963E6-DF95-4DA1-8BFF-22B0E4A0ABB1}" name="constraint" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}" name="표2_42" displayName="표2_42" ref="A44:E52" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A44:E52" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2DFAC5E4-65CE-4986-9CD0-BCA219998E12}" name="field" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B30A6DCC-9A21-479A-85E8-13920F0DBE7B}" name="type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{41CDF5E1-C24D-43BE-A00E-3EEF9A9A57E3}" name="content" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F173C648-4315-4E54-8F28-634E8B2DA7E7}" name="null" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{42C3BB6B-6FE6-47BB-B1AC-528CFE0FF0D7}" name="constraint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1392,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5650EC-002F-45C9-91DA-860A3AE47109}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,33 +1572,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1443,15 +1607,15 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1460,13 +1624,13 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1475,15 +1639,15 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1492,13 +1656,13 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1507,15 +1671,15 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1524,15 +1688,15 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1541,50 +1705,50 @@
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="D9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="D10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1598,7 +1762,7 @@
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="b">
+      <c r="D17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1615,7 +1779,7 @@
       <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11" t="b">
+      <c r="D18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
@@ -1630,7 +1794,7 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11" t="b">
+      <c r="D19" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="3"/>
@@ -1645,7 +1809,7 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="b">
+      <c r="D20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="3"/>
@@ -1660,7 +1824,7 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11" t="b">
+      <c r="D21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1677,7 +1841,7 @@
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="11" t="b">
+      <c r="D22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1685,10 +1849,18 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1700,28 +1872,28 @@
     </row>
     <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1735,7 +1907,7 @@
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="11" t="b">
+      <c r="D31" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1750,7 +1922,7 @@
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="11" t="b">
+      <c r="D32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="3"/>
@@ -1763,7 +1935,7 @@
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="11" t="b">
+      <c r="D33" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1778,7 +1950,7 @@
       <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11" t="b">
+      <c r="D34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1793,7 +1965,7 @@
       <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="11" t="b">
+      <c r="D35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1808,7 +1980,7 @@
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="11" t="b">
+      <c r="D36" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1825,7 +1997,7 @@
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="11" t="b">
+      <c r="D37" s="8" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="3"/>
@@ -1837,18 +2009,165 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/db_erd.xlsx
+++ b/db_erd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\business_blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11863B3F-F00E-4032-AE6A-8F08DAC44A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EED5A5-4E96-4E56-AD94-B27EDF8E1053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{8C2807C4-563D-45B3-80AB-A26016DB4F75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2807C4-563D-45B3-80AB-A26016DB4F75}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>답변내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,78 @@
   </si>
   <si>
     <t>backref=notice_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation(User, secondary=question_voter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation(User, secondary=answer_voter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_voter(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_voter(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backref=comment_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_voter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천자 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,11 +729,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="73">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -776,6 +871,532 @@
           <color indexed="64"/>
         </top>
         <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1184,56 +1805,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}" name="표2" displayName="표2" ref="A2:E10" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}" name="표2" displayName="표2" ref="A2:E10" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="A2:E10" xr:uid="{7D99033A-5E7E-4CC7-B679-32C9AC6DBC79}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2165067-7723-406E-9663-CFFAA49A24AD}" name="field" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{AAF79685-9FEB-4476-B972-2373B8F66EDC}" name="type" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{ECBAEB79-CEF2-4CF2-8A98-B8E369126E22}" name="content" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{10A09EFD-7341-4EB9-B890-9BEC48CA4F15}" name="null" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{8AF7C31B-B6F2-44D6-A2BB-30AE765C1B25}" name="constraint" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B2165067-7723-406E-9663-CFFAA49A24AD}" name="field" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{AAF79685-9FEB-4476-B972-2373B8F66EDC}" name="type" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{ECBAEB79-CEF2-4CF2-8A98-B8E369126E22}" name="content" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{10A09EFD-7341-4EB9-B890-9BEC48CA4F15}" name="null" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{8AF7C31B-B6F2-44D6-A2BB-30AE765C1B25}" name="constraint" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}" name="표2_4" displayName="표2_4" ref="A16:E24" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A16:E24" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}" name="표2_4" displayName="표2_4" ref="A14:E22" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="A14:E22" xr:uid="{055F00CB-D8E4-4C3E-AF66-1027966AF60F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3B9FD2ED-6D30-4F5E-800E-25A58755577B}" name="field" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{893E0C3B-7CD1-465C-A7B7-4393BB91FD43}" name="type" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{AAFC0701-11C8-47DD-8099-24C46ED88030}" name="content" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{264BFC99-143B-4D09-A242-34521BA4CFD6}" name="null" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{22DA176B-7ECB-4A67-8CA0-49A5C3048774}" name="constraint" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{3B9FD2ED-6D30-4F5E-800E-25A58755577B}" name="field" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{893E0C3B-7CD1-465C-A7B7-4393BB91FD43}" name="type" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{AAFC0701-11C8-47DD-8099-24C46ED88030}" name="content" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{264BFC99-143B-4D09-A242-34521BA4CFD6}" name="null" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{22DA176B-7ECB-4A67-8CA0-49A5C3048774}" name="constraint" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}" name="표2_45" displayName="표2_45" ref="A30:E38" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A30:E38" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}" name="표2_45" displayName="표2_45" ref="A26:E34" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+  <autoFilter ref="A26:E34" xr:uid="{D62F1A9A-31C0-415D-9A43-EFAB94667725}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A154B91D-EA1E-42ED-B4E7-35C270E495A4}" name="field" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{75E6E491-53A5-4E74-AA1C-F689CCAB3D59}" name="type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B0B4AABE-E304-4CEA-8588-ED8AE2929D9C}" name="content" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{98FAB849-6FD0-4301-93EA-9F8F0B76C24E}" name="null" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{25F963E6-DF95-4DA1-8BFF-22B0E4A0ABB1}" name="constraint" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A154B91D-EA1E-42ED-B4E7-35C270E495A4}" name="field" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{75E6E491-53A5-4E74-AA1C-F689CCAB3D59}" name="type" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{B0B4AABE-E304-4CEA-8588-ED8AE2929D9C}" name="content" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{98FAB849-6FD0-4301-93EA-9F8F0B76C24E}" name="null" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{25F963E6-DF95-4DA1-8BFF-22B0E4A0ABB1}" name="constraint" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}" name="표2_42" displayName="표2_42" ref="A44:E52" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A44:E52" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}" name="표2_42" displayName="표2_42" ref="A38:E46" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A38:E46" xr:uid="{5D9B47B5-5C4F-4184-823D-74F9D31EE5F3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2DFAC5E4-65CE-4986-9CD0-BCA219998E12}" name="field" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B30A6DCC-9A21-479A-85E8-13920F0DBE7B}" name="type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{41CDF5E1-C24D-43BE-A00E-3EEF9A9A57E3}" name="content" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F173C648-4315-4E54-8F28-634E8B2DA7E7}" name="null" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{42C3BB6B-6FE6-47BB-B1AC-528CFE0FF0D7}" name="constraint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2DFAC5E4-65CE-4986-9CD0-BCA219998E12}" name="field" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{B30A6DCC-9A21-479A-85E8-13920F0DBE7B}" name="type" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{41CDF5E1-C24D-43BE-A00E-3EEF9A9A57E3}" name="content" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{F173C648-4315-4E54-8F28-634E8B2DA7E7}" name="null" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{42C3BB6B-6FE6-47BB-B1AC-528CFE0FF0D7}" name="constraint" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44140368-2883-4087-B90A-340782FC0C7C}" name="표2_46" displayName="표2_46" ref="G14:K22" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="G14:K22" xr:uid="{44140368-2883-4087-B90A-340782FC0C7C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{378BB46C-E33D-4AD6-870C-8C54C0186095}" name="field" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{473D3F4C-3D1E-4948-BA26-68A032753A1E}" name="type" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{0C39E706-1EEF-4CBA-9C90-D44C36F82873}" name="content" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{6B207DAD-8937-4B29-A669-E0F61F4DF09A}" name="null" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{E22F650E-921B-4B8A-AB40-626D983E4E3E}" name="constraint" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5EE7E9A-7CAD-478C-BC15-EA67F00AB129}" name="표2_467" displayName="표2_467" ref="G26:K34" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="G26:K34" xr:uid="{A5EE7E9A-7CAD-478C-BC15-EA67F00AB129}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A1D0B771-E834-478A-868B-23273A71103C}" name="field" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7158BBF3-585B-40B1-B259-D6275DCFA05E}" name="type" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B80FA5F2-33A0-4589-8428-578A43C0A391}" name="content" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{3EF8E121-81D1-482F-92C6-E5DF31328968}" name="null" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{5666E7D9-2DAD-4576-8741-5BC2949074DF}" name="constraint" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D7190B92-03C6-485A-8CA4-97652A5FF226}" name="표2_428" displayName="표2_428" ref="A50:E60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="9" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A50:E60" xr:uid="{D7190B92-03C6-485A-8CA4-97652A5FF226}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2CAA5B14-4A2D-4F59-BD7C-0C21D84BEB6C}" name="field" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{45307CA8-DA5A-4611-9AFB-AA51B5A62C99}" name="type" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{380CBDA4-6960-4E2E-9DA0-1FAF53331FC5}" name="content" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0558062B-8672-40C1-9583-FF1936B123D1}" name="null" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BDB1EDD8-6018-425E-8FC9-F1F210558B1E}" name="constraint" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F1B5FA02-63D5-4EF0-AB29-D236BDD9C6FD}" name="표2_4679" displayName="표2_4679" ref="G50:K58" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="G50:K58" xr:uid="{F1B5FA02-63D5-4EF0-AB29-D236BDD9C6FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{85C838C0-FEDF-4FC3-ADE0-10CC2D42073B}" name="field" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{870B35F6-D354-4A78-8B20-D51766608C39}" name="type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7527AD3B-37A1-4D3A-BF44-08C5629636DE}" name="content" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DAEDC921-3764-474A-801F-BBA64D008438}" name="null" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7C1C7D8B-3EE4-43BE-8197-39FC07162436}" name="constraint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1556,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5650EC-002F-45C9-91DA-860A3AE47109}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,18 +2246,19 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +2307,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +2324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +2339,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +2356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +2373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1710,7 +2388,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1725,449 +2403,898 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="G13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="G25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="G49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B54" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="D55" s="25"/>
+      <c r="E55" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B59" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="C59" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="E60" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="G49:K49"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>